--- a/biology/Botanique/Crepis_praemorsa/Crepis_praemorsa.xlsx
+++ b/biology/Botanique/Crepis_praemorsa/Crepis_praemorsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crepis praemorsa, de noms communs Crépide à rhizome, Crépide en rosette, Crépide rongée, est une espèce de plante à fleurs du genre Crepis, de la famille des Asteraceae.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante vivace à racine courte, tronquée ; la hampe de 3-6 dm, solitaire, est dressée, simple, un peu pubescente, quelquefois glabre ; les feuilles sont toutes radicales, en rosette, oblongues ou oblongues-obovales, très brièvement rétrécies en pétiole à la base, entières ou dentées, ordinairement pubescentes[2].
-Appareil reproducteur
-Les capitules pédonculés sont en grappe assez courte, ovoïde ou oblongue ; l'involucre est glabre ou presque glabre ; les akènes sont longs de 5 mm environ, dépassant un peu l'aigrette. Les fleurs sont d'un jaune pâle[2].
-La floraison se déroule de mai à juin.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace à racine courte, tronquée ; la hampe de 3-6 dm, solitaire, est dressée, simple, un peu pubescente, quelquefois glabre ; les feuilles sont toutes radicales, en rosette, oblongues ou oblongues-obovales, très brièvement rétrécies en pétiole à la base, entières ou dentées, ordinairement pubescentes.
 </t>
         </is>
       </c>
@@ -543,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Crepis praemorsa occupe une grande partie de l’Europe notamment centrale et de la Sibérie ; la plante est absente en région méditerranéenne[3].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les capitules pédonculés sont en grappe assez courte, ovoïde ou oblongue ; l'involucre est glabre ou presque glabre ; les akènes sont longs de 5 mm environ, dépassant un peu l'aigrette. Les fleurs sont d'un jaune pâle.
+La floraison se déroule de mai à juin.
 </t>
         </is>
       </c>
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La crépide à rhizome pousse dans les pelouses, les lisières des bois thermophiles, de préférence sur sol calcaire ; jusqu'à 1 800 m d'altitude[4].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crepis praemorsa occupe une grande partie de l’Europe notamment centrale et de la Sibérie ; la plante est absente en région méditerranéenne.
 </t>
         </is>
       </c>
@@ -605,10 +628,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La crépide à rhizome pousse dans les pelouses, les lisières des bois thermophiles, de préférence sur sol calcaire ; jusqu'à 1 800 m d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Crepis_praemorsa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crepis_praemorsa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Aracium praemorsum (L.) D.Dietr., 1847
 Crepis praemorsa (L.) Walther, 1802 subsp. praemorsa
@@ -620,7 +678,7 @@
 Hieracium setiferum Lam., 1779
 Intybellia praemorsa (L.) Monnier, 1829
 Intybus praemorsus (L.) Fr., 1828
-Soyeria praemorsa (L.) Mutel, 1835[5]</t>
+Soyeria praemorsa (L.) Mutel, 1835</t>
         </is>
       </c>
     </row>
